--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1959.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1959.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"export" + 0.001*"account" + 0.001*"currency" + 0.001*"payment" + 0.001*"foreign" + 0.001*"may" + 0.001*"bank" + 0.001*"rate"</t>
-  </si>
-  <si>
-    <t>0.006*"exchange" + 0.005*"import" + 0.004*"export" + 0.003*"account" + 0.003*"may" + 0.003*"foreign" + 0.003*"payment" + 0.003*"bank" + 0.003*"rate" + 0.003*"country"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"may" + 0.001*"export" + 0.001*"bank" + 0.001*"payment" + 0.001*"account" + 0.000*"currency" + 0.000*"rate" + 0.000*"foreign"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"exchange" + 0.002*"rate" + 0.002*"export" + 0.002*"account" + 0.001*"currency" + 0.001*"country" + 0.001*"may" + 0.001*"payment" + 0.001*"license"</t>
-  </si>
-  <si>
-    <t>0.022*"import" + 0.021*"exchange" + 0.016*"export" + 0.014*"payment" + 0.014*"account" + 0.014*"currency" + 0.013*"may" + 0.013*"rate" + 0.012*"country" + 0.012*"foreign"</t>
+    <t>0.074*"export" + 0.065*"rate" + 0.032*"exchange" + 0.028*"dollar" + 0.025*"proceeds" + 0.024*"official" + 0.023*"redistribution" + 0.019*"license" + 0.012*"import" + 0.012*"system"</t>
+  </si>
+  <si>
+    <t>0.065*"per" + 0.041*"cent" + 0.025*"import" + 0.024*"u" + 0.011*"note" + 0.011*"year" + 0.009*"amount" + 0.009*"tax" + 0.009*"subject" + 0.008*"deposit"</t>
+  </si>
+  <si>
+    <t>0.046*"account" + 0.035*"country" + 0.031*"payment" + 0.030*"currency" + 0.028*"may" + 0.025*"fund" + 0.023*"monetary" + 0.022*"area" + 0.020*"international" + 0.020*"sterling"</t>
+  </si>
+  <si>
+    <t>0.064*"exchange" + 0.045*"bank" + 0.036*"foreign" + 0.023*"invisibles" + 0.023*"control" + 0.023*"import" + 0.019*"payment" + 0.014*"must" + 0.013*"require" + 0.012*"authorized"</t>
+  </si>
+  <si>
+    <t>0.044*"import" + 0.032*"free" + 0.030*"market" + 0.022*"good" + 0.019*"currency" + 0.017*"capital" + 0.017*"export" + 0.016*"list" + 0.014*"certain" + 0.012*"rate"</t>
   </si>
 </sst>
 </file>
